--- a/biology/Médecine/Johann_Gottlob_Leidenfrost/Johann_Gottlob_Leidenfrost.xlsx
+++ b/biology/Médecine/Johann_Gottlob_Leidenfrost/Johann_Gottlob_Leidenfrost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Gottlob Leidenfrost (1715-1794) est un médecin et théologien allemand. Il est connu pour avoir le premier décrit véritablement le phénomène appelé effet Leidenfrost.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Gottlob Leidenfrost naît à RosperwendaRosperwenda. Son père, Johann Heinrich Leidenfrost, est un ministre connu. Peu de choses de la vie de Leidenfrost sont connues avant le début de sa carrière académique. 
 Leidenfrost étudie comme son père la théologie à l'université de Giessen. Il entame ensuite des études de médecine à l'université de Leipzig et à l'université Martin-Luther de Halle-Wittemberg. Il reçoit en 1741 son doctorat de médecine avec une thèse sur le mouvement du corps humain.
